--- a/Data/Input/Input.xlsx
+++ b/Data/Input/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://betacom1-my.sharepoint.com/personal/mwiecek_betacom_com_pl/Documents/ITIL_moje/Rekrutacja/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chame\Documents\UiPath\KRS_Data_Scraper\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{41E15D2C-259D-43C3-B179-A5AB30215475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FE84606-2379-4C68-AA3F-8922960238F5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4436AC2-366A-43B4-908F-2B3DE6271D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{0CB34D68-E816-480A-B3B3-92DF85DBED46}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="25575" windowHeight="11295" xr2:uid="{0CB34D68-E816-480A-B3B3-92DF85DBED46}"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>KRS</t>
   </si>
@@ -84,13 +84,16 @@
   </si>
   <si>
     <t>0000951450</t>
+  </si>
+  <si>
+    <t>1234567890</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,9 +193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,7 +233,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -336,7 +339,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,10 +492,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -507,7 +510,7 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -523,7 +526,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -558,7 +561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -573,7 +576,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -588,7 +591,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -603,20 +606,22 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -629,7 +634,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -642,7 +647,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -655,7 +660,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -668,7 +673,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -681,7 +686,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -694,7 +699,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -707,7 +712,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -726,19 +731,11 @@
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DF56AAC514FF894DB9025FD6D51E167D" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="76c5b999bb60df58f39d3ae47f0f9a96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="915a8f8f-5e2c-47da-8ee4-e234318d0641" xmlns:ns3="5231f521-4a98-41f3-9ae1-201dce3e5a7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ab3f6e8c38bc0e4d7f7f5c8ce3e5b20" ns2:_="" ns3:_="">
     <xsd:import namespace="915a8f8f-5e2c-47da-8ee4-e234318d0641"/>
@@ -981,10 +978,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEED3417-EC0C-413E-B574-9C949658887B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{854C0DD1-8E0D-446E-A0E0-182905A1CBA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915a8f8f-5e2c-47da-8ee4-e234318d0641"/>
+    <ds:schemaRef ds:uri="5231f521-4a98-41f3-9ae1-201dce3e5a7d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{854C0DD1-8E0D-446E-A0E0-182905A1CBA4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEED3417-EC0C-413E-B574-9C949658887B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>